--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217645.8227074943</v>
+        <v>-174054.0873206414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16601219.99236629</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8852498.42696353</v>
+        <v>8883331.757208992</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.9052727725923</v>
+        <v>74.92025469953637</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>163.3206424654774</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>8.129390960577833</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>143.9188969657114</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>421.4246840122992</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>72.18909820223087</v>
+        <v>126.8355823247562</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1376,13 +1376,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>300.4963757841797</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.5062303103007</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>48.3880663966106</v>
       </c>
       <c r="U13" t="n">
-        <v>240.9739924674999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>153.3482742143638</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>320.0615464482885</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>23.21215624113674</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225785</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>165.4853690018466</v>
       </c>
       <c r="D17" t="n">
-        <v>133.3514000059499</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>173.7040795765154</v>
       </c>
       <c r="U19" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>205.4934994164269</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>132.531220956514</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>100.7890476991257</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225717</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>28.46824604904459</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>43.4889870101594</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225831</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009272</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092794</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981684</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561369</v>
+        <v>423.1761338157528</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320844</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925395</v>
+        <v>82.40273359886987</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770218</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267643</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639455</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.5384173073509</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842116</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224758</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>58.24598510882058</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326386</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>138.0905310873977</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432488</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934433</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358518</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602942</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>268.8935188904399</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999013</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009272</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092794</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981684</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157528</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320844</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>82.40273359886991</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770218</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639455</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.5384173073509</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842116</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>32.52992480485611</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602942</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.8935188904399</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009272</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092794</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981684</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157528</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320844</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>82.40273359887006</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770218</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639455</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.5384173073509</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842116</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224758</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326386</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452991</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277817</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934455</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>26.2435175954088</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602942</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.8935188904399</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999013</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>976.8833885612819</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>538.7409157447053</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>102.8311309191498</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>73.09679011784905</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.5244520203788</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1094.237788542707</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1094.237788542707</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1094.237788542707</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1094.237788542707</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1138.122041139063</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1747.83537766139</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2294.334163619985</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.421001246081</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.421001246081</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1880.804051179907</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1475.94859659094</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1056.806133170251</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1052.560413510309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.4415095587536</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.9850483953959</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.8947595419492</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.7743448689029</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.3905064850645</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>91.00541675124838</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.33343772791845</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1009.605099216459</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.33674795193</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.50952604627</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1649.054088494653</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.875444825254</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.538897825223</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.421379887222</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>958.098625620416</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.231189859296</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.7454106385168</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>806.931039006935</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>634.3693274901599</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>468.4913346916826</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>303.5209887669579</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>303.5209887669579</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>137.9297137927855</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.9297137927855</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>101.6010784992648</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>376.3595330704004</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>794.5694148383615</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1254.053282019274</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1696.312085176919</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2115.9813344027</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2442.070407078414</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2282.829038376411</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2036.949591954866</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1758.516591207971</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1471.561083078401</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.971924059632</v>
+        <v>1471.561083078401</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>1226.169328411814</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>998.7496577259221</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>977.375145460345</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>945.5057646751936</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>511.7310198334888</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>487.9039942831006</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1367.929426813393</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>929.786953996816</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>493.8771691712605</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>68.19567016893811</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>44.3686446185499</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>44.3686446185499</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>44.3686446185499</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3686446185499</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>44.3686446185499</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>571.24629946383</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1120.308276618385</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1120.308276618385</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1120.308276618385</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1669.37025377294</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>2218.432230927495</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.617180378932</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.474716958243</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.2289972983</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464849</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930382</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.8732249199919</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361535</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233743</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.3686446185499</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900751</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452199</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997748</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.8486371476794</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C10" t="n">
-        <v>117.2869256309043</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="D10" t="n">
-        <v>44.3686446185499</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>44.3686446185499</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>44.3686446185499</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>44.3686446185499</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>44.3686446185499</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.3686446185499</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.3686446185499</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248531</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928142</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731372</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957153</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927495</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632867</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2037.773040930863</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.893594509319</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.460593762424</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>1226.505085632854</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>954.4786812191458</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>709.0869265525582</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>481.6672558666665</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1986.409350195515</v>
+        <v>2245.579471736856</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.266877378938</v>
+        <v>1807.436998920279</v>
       </c>
       <c r="D11" t="n">
-        <v>1112.357092553383</v>
+        <v>1371.527214094724</v>
       </c>
       <c r="E11" t="n">
-        <v>808.8253998420902</v>
+        <v>937.7524692530187</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9579702512979</v>
+        <v>509.8850396622265</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>386.1413726821247</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451413</v>
+        <v>97.01121812534095</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165413</v>
+        <v>96.59442875248095</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745719</v>
+        <v>396.168787297656</v>
       </c>
       <c r="K11" t="n">
-        <v>1361.01600573275</v>
+        <v>1230.519079255834</v>
       </c>
       <c r="L11" t="n">
-        <v>2436.075971985609</v>
+        <v>2305.579045508694</v>
       </c>
       <c r="M11" t="n">
-        <v>2436.075971985609</v>
+        <v>2305.579045508694</v>
       </c>
       <c r="N11" t="n">
-        <v>2436.075971985609</v>
+        <v>2305.579045508694</v>
       </c>
       <c r="O11" t="n">
-        <v>3416.255638555916</v>
+        <v>3285.758712078999</v>
       </c>
       <c r="P11" t="n">
-        <v>4244.565513389311</v>
+        <v>4114.068586912395</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.39725132965</v>
+        <v>4660.567372870991</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082707</v>
+        <v>4829.721437624047</v>
       </c>
       <c r="S11" t="n">
-        <v>4486.899442266544</v>
+        <v>4746.069563807884</v>
       </c>
       <c r="T11" t="n">
-        <v>4266.832215139582</v>
+        <v>4526.002336680923</v>
       </c>
       <c r="U11" t="n">
-        <v>4007.609912456599</v>
+        <v>4266.780033997939</v>
       </c>
       <c r="V11" t="n">
-        <v>3644.992962390425</v>
+        <v>3904.163083931766</v>
       </c>
       <c r="W11" t="n">
-        <v>3240.137507801459</v>
+        <v>3499.307629342799</v>
       </c>
       <c r="X11" t="n">
-        <v>2820.99504438077</v>
+        <v>3080.16516592211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2412.708920680423</v>
+        <v>2671.879042221763</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>602.7661737437737</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>496.309712580416</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>401.2194237269693</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>307.099009053923</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>223.7151706700846</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>138.3300809362685</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165413</v>
+        <v>96.59442875248095</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>122.6581019129385</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>447.2164268791509</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791509</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791509</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791509</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791509</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1642.66141213695</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1759.83419023129</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1696.378752679673</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1566.200109010274</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1389.863562010243</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1190.746044072242</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1005.423289805436</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>850.5558540443161</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>724.0700748235369</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1081.809237708211</v>
+        <v>1003.090877847587</v>
       </c>
       <c r="C13" t="n">
-        <v>909.2475261914357</v>
+        <v>1003.090877847587</v>
       </c>
       <c r="D13" t="n">
-        <v>743.3695333929584</v>
+        <v>837.2128850491101</v>
       </c>
       <c r="E13" t="n">
-        <v>573.6115296436957</v>
+        <v>667.4548812998473</v>
       </c>
       <c r="F13" t="n">
-        <v>396.9044756054519</v>
+        <v>490.7478272616036</v>
       </c>
       <c r="G13" t="n">
-        <v>231.3132006312796</v>
+        <v>325.1565522874311</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165413</v>
+        <v>185.2543779778056</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165413</v>
+        <v>96.59442875248095</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>183.1741139171708</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>457.9325684883064</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>876.1424502562675</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1335.62631743718</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1777.885120594825</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2197.554369820607</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2545.061263790948</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="S13" t="n">
-        <v>2548.82926752245</v>
+        <v>2554.012669953278</v>
       </c>
       <c r="T13" t="n">
-        <v>2548.82926752245</v>
+        <v>2505.135835209227</v>
       </c>
       <c r="U13" t="n">
-        <v>2305.421194322955</v>
+        <v>2226.702834462332</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.465686193385</v>
+        <v>1939.747326332762</v>
       </c>
       <c r="W13" t="n">
-        <v>1746.439281779677</v>
+        <v>1667.720921919054</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.047527113089</v>
+        <v>1422.329167252466</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.627856427198</v>
+        <v>1194.909496566574</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.744370297625</v>
+        <v>2523.361224717019</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.601897481048</v>
+        <v>2085.218751900442</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.692112655493</v>
+        <v>1649.308967074886</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.534222233181</v>
       </c>
       <c r="F14" t="n">
-        <v>787.0499382229957</v>
+        <v>787.6667926423894</v>
       </c>
       <c r="G14" t="n">
-        <v>385.6521068462596</v>
+        <v>386.2689612656533</v>
       </c>
       <c r="H14" t="n">
-        <v>96.52195228947592</v>
+        <v>97.13880670886955</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J14" t="n">
-        <v>371.7054955044048</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K14" t="n">
-        <v>1206.055787462583</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L14" t="n">
-        <v>2281.115753715442</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M14" t="n">
-        <v>2281.115753715442</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.115753715442</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285749</v>
+        <v>3461.292206008487</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119145</v>
+        <v>4289.602080841883</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077739</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830796</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014633</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T14" t="n">
-        <v>4721.606272014633</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U14" t="n">
-        <v>4462.383969331649</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V14" t="n">
-        <v>4099.767019265476</v>
+        <v>3910.542513108197</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.472527903568</v>
+        <v>3505.68705851923</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.330064482879</v>
+        <v>3086.544595098541</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.043940782532</v>
+        <v>2678.258471398194</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911043</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E15" t="n">
-        <v>306.609743218058</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342196</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004035</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432859</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.8403690362319</v>
+        <v>1033.635525439513</v>
       </c>
       <c r="C16" t="n">
-        <v>792.2786575194568</v>
+        <v>861.0738139227382</v>
       </c>
       <c r="D16" t="n">
-        <v>626.4006647209794</v>
+        <v>695.1958211242609</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6426609717167</v>
+        <v>525.4378173749981</v>
       </c>
       <c r="F16" t="n">
-        <v>279.935606933473</v>
+        <v>348.7307633367543</v>
       </c>
       <c r="G16" t="n">
-        <v>114.3443319593006</v>
+        <v>325.2841408709597</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10516291661592</v>
+        <v>185.3819665613342</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S16" t="n">
-        <v>2712.764772819416</v>
+        <v>2554.140258536806</v>
       </c>
       <c r="T16" t="n">
-        <v>2466.885326397871</v>
+        <v>2308.260812115261</v>
       </c>
       <c r="U16" t="n">
-        <v>2188.452325650976</v>
+        <v>2029.827811368366</v>
       </c>
       <c r="V16" t="n">
-        <v>1901.496817521407</v>
+        <v>1742.872303238796</v>
       </c>
       <c r="W16" t="n">
-        <v>1629.470413107698</v>
+        <v>1470.845898825088</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.078658441111</v>
+        <v>1225.4541441585</v>
       </c>
       <c r="Y16" t="n">
-        <v>1156.658987755219</v>
+        <v>1225.4541441585</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2221.116179943604</v>
+        <v>2251.958900913287</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.973707127027</v>
+        <v>2084.801962527583</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.275323282633</v>
+        <v>1648.892177702028</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.500578440928</v>
+        <v>1215.117432860322</v>
       </c>
       <c r="F17" t="n">
-        <v>786.6331488501357</v>
+        <v>787.2500032695293</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733997</v>
+        <v>385.8521718927933</v>
       </c>
       <c r="H17" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J17" t="n">
-        <v>371.7054955044048</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K17" t="n">
-        <v>1206.055787462583</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L17" t="n">
-        <v>2281.115753715442</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M17" t="n">
-        <v>2281.115753715442</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="N17" t="n">
-        <v>2281.115753715442</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="O17" t="n">
-        <v>3261.295420285749</v>
+        <v>3421.566629570271</v>
       </c>
       <c r="P17" t="n">
-        <v>4089.605295119145</v>
+        <v>4249.876504403667</v>
       </c>
       <c r="Q17" t="n">
-        <v>4636.104081077739</v>
+        <v>4796.375290362263</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830796</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S17" t="n">
-        <v>4721.606272014633</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T17" t="n">
-        <v>4501.539044887671</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U17" t="n">
-        <v>4242.316742204688</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V17" t="n">
-        <v>3879.699792138514</v>
+        <v>3910.542513108197</v>
       </c>
       <c r="W17" t="n">
-        <v>3474.844337549547</v>
+        <v>3505.687058519231</v>
       </c>
       <c r="X17" t="n">
-        <v>3055.701874128858</v>
+        <v>3086.544595098541</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.415750428511</v>
+        <v>2678.258471398195</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911043</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E18" t="n">
-        <v>306.609743218058</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342196</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004035</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432859</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K18" t="n">
-        <v>446.7271610432859</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="L18" t="n">
-        <v>446.7271610432859</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="M18" t="n">
-        <v>446.7271610432859</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N18" t="n">
-        <v>446.7271610432859</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O18" t="n">
-        <v>446.7271610432859</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.163323528498</v>
+        <v>1035.878003638265</v>
       </c>
       <c r="C19" t="n">
-        <v>1002.601612011722</v>
+        <v>863.3162921214903</v>
       </c>
       <c r="D19" t="n">
-        <v>836.723619213245</v>
+        <v>697.4382993230131</v>
       </c>
       <c r="E19" t="n">
-        <v>666.9656154639822</v>
+        <v>527.6802955737503</v>
       </c>
       <c r="F19" t="n">
-        <v>490.2585614257384</v>
+        <v>350.9732415355066</v>
       </c>
       <c r="G19" t="n">
-        <v>324.667286451566</v>
+        <v>185.3819665613343</v>
       </c>
       <c r="H19" t="n">
-        <v>184.7651121419406</v>
+        <v>185.3819665613343</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.346951524788</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.105582822784</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="T19" t="n">
-        <v>2532.105582822784</v>
+        <v>2537.922960999904</v>
       </c>
       <c r="U19" t="n">
-        <v>2398.775280143242</v>
+        <v>2259.489960253009</v>
       </c>
       <c r="V19" t="n">
-        <v>2111.819772013672</v>
+        <v>1972.53445212344</v>
       </c>
       <c r="W19" t="n">
-        <v>1839.793367599964</v>
+        <v>1700.508047709732</v>
       </c>
       <c r="X19" t="n">
-        <v>1594.401612933376</v>
+        <v>1455.116293043144</v>
       </c>
       <c r="Y19" t="n">
-        <v>1366.981942247485</v>
+        <v>1227.696622357253</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2233.614215740841</v>
+        <v>2522.944435344159</v>
       </c>
       <c r="C20" t="n">
-        <v>1795.471742924265</v>
+        <v>2084.801962527582</v>
       </c>
       <c r="D20" t="n">
-        <v>1359.561958098709</v>
+        <v>1648.892177702026</v>
       </c>
       <c r="E20" t="n">
-        <v>925.7872132570044</v>
+        <v>1215.117432860322</v>
       </c>
       <c r="F20" t="n">
-        <v>497.9197836662121</v>
+        <v>787.2500032695294</v>
       </c>
       <c r="G20" t="n">
-        <v>96.52195228947592</v>
+        <v>385.8521718927933</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J20" t="n">
-        <v>371.7054955044048</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K20" t="n">
-        <v>1206.055787462583</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L20" t="n">
-        <v>2281.115753715442</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="M20" t="n">
-        <v>2281.115753715442</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="N20" t="n">
-        <v>2281.115753715442</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="O20" t="n">
-        <v>3261.295420285749</v>
+        <v>3461.292206008487</v>
       </c>
       <c r="P20" t="n">
-        <v>4089.605295119145</v>
+        <v>4289.602080841883</v>
       </c>
       <c r="Q20" t="n">
-        <v>4636.104081077739</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830796</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014633</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T20" t="n">
-        <v>4514.037080684909</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U20" t="n">
-        <v>4254.814778001925</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V20" t="n">
-        <v>3892.197827935752</v>
+        <v>3910.542513108197</v>
       </c>
       <c r="W20" t="n">
-        <v>3487.342373346785</v>
+        <v>3776.672592950102</v>
       </c>
       <c r="X20" t="n">
-        <v>3068.199909926096</v>
+        <v>3357.530129529413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2659.913786225749</v>
+        <v>2949.244005829066</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911043</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E21" t="n">
-        <v>306.609743218058</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342196</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004035</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432859</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>946.6011999935472</v>
+        <v>806.2158547536217</v>
       </c>
       <c r="C22" t="n">
-        <v>774.0394884767721</v>
+        <v>633.6541432368466</v>
       </c>
       <c r="D22" t="n">
-        <v>608.1614956782948</v>
+        <v>633.6541432368466</v>
       </c>
       <c r="E22" t="n">
-        <v>438.403491929032</v>
+        <v>463.8961394875838</v>
       </c>
       <c r="F22" t="n">
-        <v>261.6964378907883</v>
+        <v>287.18908544934</v>
       </c>
       <c r="G22" t="n">
-        <v>96.10516291661592</v>
+        <v>287.18908544934</v>
       </c>
       <c r="H22" t="n">
-        <v>96.10516291661592</v>
+        <v>185.3819665613342</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661592</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S22" t="n">
-        <v>2694.525603776731</v>
+        <v>2554.140258536806</v>
       </c>
       <c r="T22" t="n">
-        <v>2448.646157355186</v>
+        <v>2308.260812115261</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.213156608292</v>
+        <v>2029.827811368366</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.257648478722</v>
+        <v>1742.872303238797</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.231244065014</v>
+        <v>1470.845898825088</v>
       </c>
       <c r="X22" t="n">
-        <v>1365.839489398426</v>
+        <v>1225.454144158501</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.419818712534</v>
+        <v>998.0344734726089</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>296.607919334896</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>131.0166443607237</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.679733297908</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419178</v>
+        <v>1591.69782075463</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957673</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789922</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312521</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930083</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7117,7 +7117,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S37" t="n">
         <v>2700.681281130895</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>791.8276588750506</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197254</v>
+        <v>390.8466168711745</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784139</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220586</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790892</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>818.2293662024661</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936683</v>
+        <v>646.0844440585511</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080672</v>
+        <v>587.2501156658028</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716805</v>
+        <v>417.9089012894001</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463128</v>
+        <v>241.6186366240164</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850166</v>
+        <v>241.6186366240164</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882672</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>189.1214321162811</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517569</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>882.9067589840582</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341418</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.4595535761</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2563.236244375629</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2317.773587326944</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2039.75737595291</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1753.218657196201</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1481.609042155352</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1236.634076861625</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1009.631195548593</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>818.2293662024655</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936668</v>
+        <v>646.0844440585506</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080656</v>
+        <v>480.6232406329334</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716789</v>
+        <v>311.2820262565306</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463112</v>
+        <v>134.9917615911461</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882657</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>882.906758984058</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341418</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.4595535761</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2563.236244375629</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2317.773587326944</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2039.75737595291</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1753.2186571962</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1481.609042155352</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1236.634076861624</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703676</v>
+        <v>1009.631195548593</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014522</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1219.278299092982</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>791.82765887505</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998825</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>778.4004197559675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>612.9392163303503</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>443.5980019539475</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850156</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>882.906758984058</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2695.552220073046</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2172.073351650326</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.925017852769</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>44.32752787510685</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>45.44718192262189</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>52.85991306242825</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>532.1996513588689</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>554.6080577318737</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>554.6080577318737</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318737</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318737</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840088</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848806</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>302.6003621668435</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.4158969094333</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>278.3841743310999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.12684488708646</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>278.3841743310999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.12684488708601</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>278.3841743310999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1126.046002718258</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>333.5281661054205</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>128.9406216091081</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>274.877622752668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>195.0325855607187</v>
       </c>
       <c r="U13" t="n">
-        <v>34.67467827192579</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268.6883005656948</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>80.74535359478853</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>268.2756790865643</v>
       </c>
       <c r="D17" t="n">
-        <v>298.19928697135</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>69.71657238081391</v>
       </c>
       <c r="U19" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>12.37305543926485</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>268.2756790865631</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>37.71410486740348</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174846</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>114.1599680048239</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729424178</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>139.592177662725</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>105.5606062825405</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5227407452991</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.36072825393993</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.79102160255035</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.9928159404431</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825393997</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.79102160255039</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.0905310873977</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825393994</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.79102160255036</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.992815940443</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769002.6876326255</v>
+        <v>774896.7325993719</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769002.6876326255</v>
+        <v>776485.5888672259</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773011.8806820499</v>
+        <v>776485.5888672259</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716057.6822431209</v>
+        <v>745610.5363029286</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742821.0168633851</v>
+        <v>746337.9748607174</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742821.016863385</v>
+        <v>746337.9748607173</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742821.016863385</v>
+        <v>746337.9748607173</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789535.8211451726</v>
+        <v>778210.0676371161</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789535.8211451726</v>
+        <v>778210.0676371161</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789535.8211451726</v>
+        <v>778210.0676371161</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>187651.561961643</v>
       </c>
       <c r="D2" t="n">
-        <v>187651.5619616429</v>
+        <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>169736.7545837093</v>
+        <v>176742.063878184</v>
       </c>
       <c r="F2" t="n">
-        <v>176080.8266786429</v>
+        <v>176914.4983943131</v>
       </c>
       <c r="G2" t="n">
-        <v>176080.8266786429</v>
+        <v>176914.4983943131</v>
       </c>
       <c r="H2" t="n">
-        <v>176080.8266786429</v>
+        <v>176914.4983943131</v>
       </c>
       <c r="I2" t="n">
+        <v>184400.1544480734</v>
+      </c>
+      <c r="J2" t="n">
+        <v>184400.1544480734</v>
+      </c>
+      <c r="K2" t="n">
         <v>184400.1544480733</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>184400.1544480733</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>184400.1544480734</v>
       </c>
-      <c r="L2" t="n">
-        <v>184400.1544480734</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184400.1544480733</v>
-      </c>
       <c r="N2" t="n">
-        <v>187651.5619616429</v>
+        <v>184482.7871478147</v>
       </c>
       <c r="O2" t="n">
-        <v>187651.5619616429</v>
+        <v>184482.7871478146</v>
       </c>
       <c r="P2" t="n">
-        <v>187651.5619616429</v>
+        <v>184482.7871478147</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>206392.8913892648</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16684.38774088123</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178189</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518682</v>
+        <v>161206.7864921675</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510025</v>
+        <v>456.968081051494</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120709</v>
+        <v>18411.11667046239</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>161139.2285061091</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13291.29410427265</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.8450637969</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242549</v>
+        <v>134549.0157379114</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099792</v>
+        <v>330.0971833051895</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>149614.0497827027</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>161750.2044208488</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>37852.87718644966</v>
+        <v>39415.12640599668</v>
       </c>
       <c r="F4" t="n">
-        <v>39267.66435178971</v>
+        <v>39453.58090913448</v>
       </c>
       <c r="G4" t="n">
-        <v>39267.66435178971</v>
+        <v>39453.58090913447</v>
       </c>
       <c r="H4" t="n">
-        <v>39267.66435178971</v>
+        <v>39453.58090913448</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26451,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640303</v>
+        <v>41501.47029804099</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640302</v>
+        <v>41501.47029804095</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640302</v>
+        <v>41501.47029804098</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>71072.62107127023</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009791</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445714</v>
+        <v>73411.76585188552</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.9238166281</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.9238166281</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.9238166281</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-201529.0598911025</v>
+        <v>-239428.0002815947</v>
       </c>
       <c r="C6" t="n">
-        <v>-59337.75923139261</v>
+        <v>-42629.09757990045</v>
       </c>
       <c r="D6" t="n">
-        <v>-81925.29112108567</v>
+        <v>-25944.70983901927</v>
       </c>
       <c r="E6" t="n">
-        <v>-113161.2556590657</v>
+        <v>-97369.53985817617</v>
       </c>
       <c r="F6" t="n">
-        <v>46960.83623512489</v>
+        <v>63418.52291756466</v>
       </c>
       <c r="G6" t="n">
-        <v>63773.23851022511</v>
+        <v>63875.49099861614</v>
       </c>
       <c r="H6" t="n">
-        <v>63773.23851022511</v>
+        <v>63875.49099861614</v>
       </c>
       <c r="I6" t="n">
-        <v>45097.41544116101</v>
+        <v>47124.62290252309</v>
       </c>
       <c r="J6" t="n">
-        <v>-45455.50143262203</v>
+        <v>-95603.48893312358</v>
       </c>
       <c r="K6" t="n">
-        <v>65558.96391236813</v>
+        <v>52244.44546871275</v>
       </c>
       <c r="L6" t="n">
-        <v>32578.11884857123</v>
+        <v>65535.73957298547</v>
       </c>
       <c r="M6" t="n">
-        <v>-80980.40721188675</v>
+        <v>-69013.2761649259</v>
       </c>
       <c r="N6" t="n">
-        <v>43751.1778781522</v>
+        <v>64972.62560321563</v>
       </c>
       <c r="O6" t="n">
-        <v>56739.74614915017</v>
+        <v>65302.72278652079</v>
       </c>
       <c r="P6" t="n">
-        <v>56739.7461491502</v>
+        <v>65302.72278652076</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318737</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>1207.430359406012</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>51.64314951459642</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117693</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.029771288803</v>
+        <v>539.9151527981548</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702229</v>
+        <v>1.594857294107669</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704636</v>
+        <v>69.23528668462586</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459642</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117693</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288803</v>
+        <v>539.9151527981548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459642</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117693</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288803</v>
+        <v>539.9151527981548</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702229</v>
+        <v>1.594857294107669</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.13130200746639</v>
+        <v>347.1163200805223</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.739781246292665</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.1767494089935</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>101.3319306324442</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>253.4649560972573</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.012313380988587</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>92.03011466826166</v>
+        <v>37.3836305457363</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="C38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="D38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="E38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="F38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="H38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="T38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="U38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="V38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="W38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="X38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="C40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="D40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="E40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="G40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="H40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="I40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="J40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="K40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="L40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="M40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="N40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="O40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="S40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="T40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="U40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="V40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="W40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="X40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.2357103387474</v>
+        <v>0.4126214791314869</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314478</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791314737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>44.32752787510685</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>45.44718192262189</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>52.85991306242825</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>532.1996513588689</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>554.6080577318737</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>554.6080577318737</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318737</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318737</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840088</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848806</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>302.6003621668435</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.4158969094333</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>278.3841743310999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.12684488708646</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>278.3841743310999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.12684488708601</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>278.3841743310999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1126.046002718258</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36762,7 +36762,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>333.5281661054205</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>87.86684891821217</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.9464139752282</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.846845487173</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.846845487173</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>424.320954030426</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.846845487173</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436899</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
